--- a/ZavrsniProjekat/data/pet-store-data.xlsx
+++ b/ZavrsniProjekat/data/pet-store-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="1260">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -3645,6 +3645,156 @@
   </si>
   <si>
     <t>66cbec1</t>
+  </si>
+  <si>
+    <t>9898a13</t>
+  </si>
+  <si>
+    <t>1d846a6</t>
+  </si>
+  <si>
+    <t>37230e2</t>
+  </si>
+  <si>
+    <t>6fa23c8</t>
+  </si>
+  <si>
+    <t>a09ac1b</t>
+  </si>
+  <si>
+    <t>9e3e310</t>
+  </si>
+  <si>
+    <t>614fdaa</t>
+  </si>
+  <si>
+    <t>6cf84cb</t>
+  </si>
+  <si>
+    <t>10aba15</t>
+  </si>
+  <si>
+    <t>b212eeb</t>
+  </si>
+  <si>
+    <t>e1a77fa</t>
+  </si>
+  <si>
+    <t>9e96e4d</t>
+  </si>
+  <si>
+    <t>912cd1a</t>
+  </si>
+  <si>
+    <t>3a4e934</t>
+  </si>
+  <si>
+    <t>e7c4baf</t>
+  </si>
+  <si>
+    <t>ffbbc7a</t>
+  </si>
+  <si>
+    <t>daab793</t>
+  </si>
+  <si>
+    <t>edc9eab</t>
+  </si>
+  <si>
+    <t>8a4a636</t>
+  </si>
+  <si>
+    <t>ec5ea03</t>
+  </si>
+  <si>
+    <t>d5cb341</t>
+  </si>
+  <si>
+    <t>f1256dc</t>
+  </si>
+  <si>
+    <t>05e6b5e</t>
+  </si>
+  <si>
+    <t>0688270</t>
+  </si>
+  <si>
+    <t>90d6664</t>
+  </si>
+  <si>
+    <t>a83ca6e</t>
+  </si>
+  <si>
+    <t>16dfa8b</t>
+  </si>
+  <si>
+    <t>3b87956</t>
+  </si>
+  <si>
+    <t>93a39aa</t>
+  </si>
+  <si>
+    <t>fc4a454</t>
+  </si>
+  <si>
+    <t>a612466</t>
+  </si>
+  <si>
+    <t>d73bbe0</t>
+  </si>
+  <si>
+    <t>8d4e9a4</t>
+  </si>
+  <si>
+    <t>7f1b249</t>
+  </si>
+  <si>
+    <t>6bb70b2</t>
+  </si>
+  <si>
+    <t>8cbb789</t>
+  </si>
+  <si>
+    <t>98d7033</t>
+  </si>
+  <si>
+    <t>0ed4905</t>
+  </si>
+  <si>
+    <t>c54629d</t>
+  </si>
+  <si>
+    <t>e296530</t>
+  </si>
+  <si>
+    <t>192f498</t>
+  </si>
+  <si>
+    <t>a8481fb</t>
+  </si>
+  <si>
+    <t>aec5912</t>
+  </si>
+  <si>
+    <t>daf8d6a</t>
+  </si>
+  <si>
+    <t>eab4df8</t>
+  </si>
+  <si>
+    <t>88f26e0</t>
+  </si>
+  <si>
+    <t>e571550</t>
+  </si>
+  <si>
+    <t>27feb78</t>
+  </si>
+  <si>
+    <t>88ce074</t>
+  </si>
+  <si>
+    <t>97eaf97</t>
   </si>
 </sst>
 </file>
@@ -4301,7 +4451,7 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>1160</v>
+        <v>1210</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -4351,7 +4501,7 @@
     </row>
     <row r="3" spans="1:16" ht="30" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>1161</v>
+        <v>1211</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -4401,7 +4551,7 @@
     </row>
     <row r="4" spans="1:16" ht="30" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>1162</v>
+        <v>1212</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -4451,7 +4601,7 @@
     </row>
     <row r="5" spans="1:16" ht="30" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>1163</v>
+        <v>1213</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -4501,7 +4651,7 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>1164</v>
+        <v>1214</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>51</v>
@@ -4551,7 +4701,7 @@
     </row>
     <row r="7" spans="1:16" ht="30" thickBot="1">
       <c r="A7" s="7" t="s">
-        <v>1165</v>
+        <v>1215</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>60</v>
@@ -4601,7 +4751,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>1166</v>
+        <v>1216</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -4651,7 +4801,7 @@
     </row>
     <row r="9" spans="1:16" ht="30" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>1167</v>
+        <v>1217</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
@@ -4701,7 +4851,7 @@
     </row>
     <row r="10" spans="1:16" ht="30" thickBot="1">
       <c r="A10" s="7" t="s">
-        <v>1168</v>
+        <v>1218</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>87</v>
@@ -4751,7 +4901,7 @@
     </row>
     <row r="11" spans="1:16" ht="30" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>1169</v>
+        <v>1219</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
@@ -4801,7 +4951,7 @@
     </row>
     <row r="12" spans="1:16" ht="30" thickBot="1">
       <c r="A12" s="4" t="s">
-        <v>1170</v>
+        <v>1220</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -4851,7 +5001,7 @@
     </row>
     <row r="13" spans="1:16" ht="30" thickBot="1">
       <c r="A13" s="7" t="s">
-        <v>1171</v>
+        <v>1221</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>114</v>
@@ -4901,7 +5051,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1">
       <c r="A14" s="4" t="s">
-        <v>1172</v>
+        <v>1222</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>123</v>
@@ -4951,7 +5101,7 @@
     </row>
     <row r="15" spans="1:16" ht="30" thickBot="1">
       <c r="A15" s="4" t="s">
-        <v>1173</v>
+        <v>1223</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -5001,7 +5151,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1">
       <c r="A16" s="7" t="s">
-        <v>1174</v>
+        <v>1224</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>139</v>
@@ -5051,7 +5201,7 @@
     </row>
     <row r="17" spans="1:16" ht="30" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>1175</v>
+        <v>1225</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>148</v>
@@ -5101,7 +5251,7 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>1176</v>
+        <v>1226</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -5151,7 +5301,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1">
       <c r="A19" s="7" t="s">
-        <v>1177</v>
+        <v>1227</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>165</v>
@@ -5201,7 +5351,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1">
       <c r="A20" s="4" t="s">
-        <v>1178</v>
+        <v>1228</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -5251,7 +5401,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1">
       <c r="A21" s="4" t="s">
-        <v>1179</v>
+        <v>1229</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>181</v>
@@ -5301,7 +5451,7 @@
     </row>
     <row r="22" spans="1:16" ht="30" thickBot="1">
       <c r="A22" s="7" t="s">
-        <v>1180</v>
+        <v>1230</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>190</v>
@@ -5351,7 +5501,7 @@
     </row>
     <row r="23" spans="1:16" ht="30" thickBot="1">
       <c r="A23" s="4" t="s">
-        <v>1181</v>
+        <v>1231</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -5401,7 +5551,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1">
       <c r="A24" s="4" t="s">
-        <v>1182</v>
+        <v>1232</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>207</v>
@@ -5451,7 +5601,7 @@
     </row>
     <row r="25" spans="1:16" ht="30" thickBot="1">
       <c r="A25" s="7" t="s">
-        <v>1183</v>
+        <v>1233</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>216</v>
@@ -5501,7 +5651,7 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1">
       <c r="A26" s="4" t="s">
-        <v>1184</v>
+        <v>1234</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>225</v>
@@ -5551,7 +5701,7 @@
     </row>
     <row r="27" spans="1:16" ht="30" thickBot="1">
       <c r="A27" s="4" t="s">
-        <v>1185</v>
+        <v>1235</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>234</v>
@@ -5601,7 +5751,7 @@
     </row>
     <row r="28" spans="1:16" ht="30" thickBot="1">
       <c r="A28" s="7" t="s">
-        <v>1186</v>
+        <v>1236</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>243</v>
@@ -5651,7 +5801,7 @@
     </row>
     <row r="29" spans="1:16" ht="30" thickBot="1">
       <c r="A29" s="4" t="s">
-        <v>1187</v>
+        <v>1237</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>251</v>
@@ -5701,7 +5851,7 @@
     </row>
     <row r="30" spans="1:16" ht="30" thickBot="1">
       <c r="A30" s="4" t="s">
-        <v>1188</v>
+        <v>1238</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>259</v>
@@ -5751,7 +5901,7 @@
     </row>
     <row r="31" spans="1:16" ht="30" thickBot="1">
       <c r="A31" s="7" t="s">
-        <v>1189</v>
+        <v>1239</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>268</v>
@@ -5801,7 +5951,7 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1">
       <c r="A32" s="4" t="s">
-        <v>1190</v>
+        <v>1240</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>276</v>
@@ -5851,7 +6001,7 @@
     </row>
     <row r="33" spans="1:16" ht="30" thickBot="1">
       <c r="A33" s="4" t="s">
-        <v>1191</v>
+        <v>1241</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>284</v>
@@ -5901,7 +6051,7 @@
     </row>
     <row r="34" spans="1:16" ht="30" thickBot="1">
       <c r="A34" s="7" t="s">
-        <v>1192</v>
+        <v>1242</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>292</v>
@@ -5951,7 +6101,7 @@
     </row>
     <row r="35" spans="1:16" ht="30" thickBot="1">
       <c r="A35" s="4" t="s">
-        <v>1193</v>
+        <v>1243</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>301</v>
@@ -6001,7 +6151,7 @@
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1">
       <c r="A36" s="4" t="s">
-        <v>1194</v>
+        <v>1244</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>310</v>
@@ -6051,7 +6201,7 @@
     </row>
     <row r="37" spans="1:16" ht="30" thickBot="1">
       <c r="A37" s="7" t="s">
-        <v>1195</v>
+        <v>1245</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>319</v>
@@ -6101,7 +6251,7 @@
     </row>
     <row r="38" spans="1:16" ht="30" thickBot="1">
       <c r="A38" s="4" t="s">
-        <v>1196</v>
+        <v>1246</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>327</v>
@@ -6151,7 +6301,7 @@
     </row>
     <row r="39" spans="1:16" ht="30" thickBot="1">
       <c r="A39" s="4" t="s">
-        <v>1197</v>
+        <v>1247</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -6201,7 +6351,7 @@
     </row>
     <row r="40" spans="1:16" ht="15.75" thickBot="1">
       <c r="A40" s="7" t="s">
-        <v>1198</v>
+        <v>1248</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>344</v>
@@ -6251,7 +6401,7 @@
     </row>
     <row r="41" spans="1:16" ht="30" thickBot="1">
       <c r="A41" s="4" t="s">
-        <v>1199</v>
+        <v>1249</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>352</v>
@@ -6301,7 +6451,7 @@
     </row>
     <row r="42" spans="1:16" ht="30" thickBot="1">
       <c r="A42" s="4" t="s">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>360</v>
@@ -6351,7 +6501,7 @@
     </row>
     <row r="43" spans="1:16" ht="15.75" thickBot="1">
       <c r="A43" s="7" t="s">
-        <v>1201</v>
+        <v>1251</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>368</v>
@@ -6401,7 +6551,7 @@
     </row>
     <row r="44" spans="1:16" ht="30" thickBot="1">
       <c r="A44" s="4" t="s">
-        <v>1202</v>
+        <v>1252</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>377</v>
@@ -6451,7 +6601,7 @@
     </row>
     <row r="45" spans="1:16" ht="30" thickBot="1">
       <c r="A45" s="4" t="s">
-        <v>1203</v>
+        <v>1253</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>386</v>
@@ -6501,7 +6651,7 @@
     </row>
     <row r="46" spans="1:16" ht="15.75" thickBot="1">
       <c r="A46" s="7" t="s">
-        <v>1204</v>
+        <v>1254</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>394</v>
@@ -6551,7 +6701,7 @@
     </row>
     <row r="47" spans="1:16" ht="30" thickBot="1">
       <c r="A47" s="4" t="s">
-        <v>1205</v>
+        <v>1255</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>402</v>
@@ -6601,7 +6751,7 @@
     </row>
     <row r="48" spans="1:16" ht="15.75" thickBot="1">
       <c r="A48" s="4" t="s">
-        <v>1206</v>
+        <v>1256</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>410</v>
@@ -6651,7 +6801,7 @@
     </row>
     <row r="49" spans="1:16" ht="30" thickBot="1">
       <c r="A49" s="7" t="s">
-        <v>1207</v>
+        <v>1257</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>418</v>
@@ -6701,7 +6851,7 @@
     </row>
     <row r="50" spans="1:16" ht="30" thickBot="1">
       <c r="A50" s="4" t="s">
-        <v>1208</v>
+        <v>1258</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>427</v>
@@ -6751,7 +6901,7 @@
     </row>
     <row r="51" spans="1:16" ht="30" thickBot="1">
       <c r="A51" s="4" t="s">
-        <v>1209</v>
+        <v>1259</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>436</v>
